--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034214.069854984</v>
+        <v>1054474.428843313</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453908</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.15266807</v>
+        <v>4028287.523710871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7552034.888528405</v>
+        <v>7984798.516615055</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.276601758554</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>107.1566587612113</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -817,22 +819,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>204.5400120700524</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>13.88126300749924</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>99.90181919885499</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>215.5376360322956</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1063,16 +1065,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>21.64644312993429</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>188.4650620027894</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>60.65005181979156</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1379,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>178.8846941420544</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1433,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>290.7631961434229</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>270.0934576854416</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1907,10 +1909,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>351.080144279057</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7176219851141</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>129.0638484442163</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2141,10 +2143,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.62097911432935</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>22.16954853629574</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>47.64512042712315</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>93.44891486807066</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>309.8783980016761</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>28.21879981048506</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2801,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2950,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9451573940985</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2959,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3080,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>118.1609477474692</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>186.984417485054</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3269,13 +3271,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>374.7552726386488</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3317,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3430,19 +3432,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>33.74095660611388</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>373.736032213064</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>64.63266955665287</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>64.33969784253873</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>136.1769805884548</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3955,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>29.06736062834895</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3982,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>34.97670245206589</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>362.8936521561746</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>64.0824783305145</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>31.71835284843601</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>870.1877171858494</v>
+        <v>1732.746750693538</v>
       </c>
       <c r="C2" t="n">
-        <v>870.1877171858494</v>
+        <v>1322.622160006808</v>
       </c>
       <c r="D2" t="n">
-        <v>870.1877171858494</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="E2" t="n">
-        <v>455.8475017027461</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F2" t="n">
-        <v>455.8475017027461</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.338142568815</v>
+        <v>1967.822981513842</v>
       </c>
       <c r="N2" t="n">
-        <v>1394.856875555747</v>
+        <v>2721.00399815246</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.487731972852</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>2314.81403137733</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.976476713811</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.976476713811</v>
+        <v>2944.548001240985</v>
       </c>
       <c r="X2" t="n">
-        <v>1564.333078882763</v>
+        <v>2543.904603409938</v>
       </c>
       <c r="Y2" t="n">
-        <v>1163.396405830853</v>
+        <v>2142.967930358028</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L3" t="n">
-        <v>719.6754135668255</v>
+        <v>2070.288413646449</v>
       </c>
       <c r="M3" t="n">
-        <v>1444.692528955098</v>
+        <v>2070.288413646449</v>
       </c>
       <c r="N3" t="n">
-        <v>2105.076437498037</v>
+        <v>2070.288413646449</v>
       </c>
       <c r="O3" t="n">
-        <v>2105.076437498037</v>
+        <v>2774.245504192344</v>
       </c>
       <c r="P3" t="n">
-        <v>2105.076437498037</v>
+        <v>3335.951396680874</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.9332875432111</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>174.9332875432111</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>174.9332875432111</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>174.9332875432111</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9332875432111</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>174.9332875432111</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>793.9747653465236</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>587.3686925484908</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>587.3686925484908</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>587.3686925484908</v>
+        <v>1364.770951707831</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.6329939372555</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>983.9629763010623</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C5" t="n">
-        <v>573.8383856143324</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D5" t="n">
-        <v>573.8383856143324</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E5" t="n">
-        <v>159.4981701312291</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F5" t="n">
-        <v>159.4981701312291</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G5" t="n">
-        <v>159.4981701312291</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L5" t="n">
-        <v>795.1403494936445</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M5" t="n">
-        <v>1520.157464881917</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N5" t="n">
-        <v>2245.17458027019</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V5" t="n">
-        <v>2579.524527713341</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="W5" t="n">
-        <v>2195.764226848509</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="X5" t="n">
-        <v>1795.120829017462</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.184155965552</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>1075.685744088994</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>1531.492000354292</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L6" t="n">
-        <v>1531.492000354292</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.492000354292</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N6" t="n">
-        <v>2017.811725204347</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="O6" t="n">
-        <v>2017.811725204347</v>
+        <v>1894.567435957778</v>
       </c>
       <c r="P6" t="n">
-        <v>2579.517617692877</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1147.921091948674</v>
+        <v>587.0798435449918</v>
       </c>
       <c r="C7" t="n">
-        <v>976.8277195103904</v>
+        <v>415.9864711067083</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>256.4918264296184</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>95.58101129793783</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>95.58101129793783</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U7" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>1502.713419943787</v>
+        <v>1329.229068787669</v>
       </c>
       <c r="W7" t="n">
-        <v>1502.713419943787</v>
+        <v>1050.159404296544</v>
       </c>
       <c r="X7" t="n">
-        <v>1502.713419943787</v>
+        <v>811.8155421562271</v>
       </c>
       <c r="Y7" t="n">
-        <v>1335.620798342718</v>
+        <v>587.0798435449918</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.111899218274</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.111899218274</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D8" t="n">
-        <v>749.6479693113345</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E8" t="n">
-        <v>335.3077538282312</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="F8" t="n">
-        <v>335.3077538282312</v>
+        <v>854.615377312597</v>
       </c>
       <c r="G8" t="n">
-        <v>335.3077538282312</v>
+        <v>445.8870932054292</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>134.9785958331472</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>306.5402972640578</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1031.557412652331</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.574528040604</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O8" t="n">
-        <v>2400.205384457709</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.976476713811</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X8" t="n">
-        <v>1564.333078882763</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y8" t="n">
-        <v>1564.333078882763</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>783.60435703581</v>
+        <v>684.8411284776494</v>
       </c>
       <c r="N9" t="n">
-        <v>1508.621472424083</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1147.921091948674</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>1587.986138268387</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>1587.986138268387</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>1587.986138268387</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X10" t="n">
-        <v>1560.356496953953</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y10" t="n">
-        <v>1335.620798342718</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1287.51597772431</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C11" t="n">
-        <v>877.39138703758</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D11" t="n">
-        <v>472.9274571306405</v>
+        <v>668.7477429548999</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5872416475372</v>
+        <v>254.4075274717966</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>2221.212872236321</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.81403137733</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.976476713811</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W11" t="n">
-        <v>1581.216175848979</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X11" t="n">
-        <v>1287.51597772431</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y11" t="n">
-        <v>1287.51597772431</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4000992101705</v>
+        <v>403.5699402716127</v>
       </c>
       <c r="M12" t="n">
-        <v>976.4172145984433</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.434329986716</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O12" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>1587.986138268387</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.986138268387</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.986138268387</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X13" t="n">
-        <v>1560.356496953953</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y13" t="n">
-        <v>1335.620798342718</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1564.039803661901</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.039803661901</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D14" t="n">
-        <v>1291.218129232162</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E14" t="n">
-        <v>876.8779137490585</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F14" t="n">
-        <v>455.8475017027461</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="N14" t="n">
-        <v>2221.212872236321</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O14" t="n">
-        <v>2864.843728653426</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W14" t="n">
-        <v>1964.976476713811</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X14" t="n">
-        <v>1964.976476713811</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y14" t="n">
-        <v>1564.039803661901</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5555,10 +5557,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1402.950983437843</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420.2158558882276</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2158558882276</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D19" t="n">
-        <v>420.2158558882276</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E19" t="n">
-        <v>420.2158558882276</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>255.5847299988188</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1162.365081130905</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>883.2954166397794</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X19" t="n">
-        <v>644.9515544994629</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.2158558882276</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C20" t="n">
         <v>2139.066799289355</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5789,13 +5791,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="D22" t="n">
         <v>851.989530876386</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="Y22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>452.2785793327262</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>141.3700819604442</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6066,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>2139.732893541123</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>785.4715590457869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>785.4715590457869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>785.4715590457869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6172,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.250826191383</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X25" t="n">
-        <v>1197.906964051067</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y25" t="n">
-        <v>973.1712654398312</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2452.075282119331</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3663.876532666778</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3263.23313483573</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2862.29646178382</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6314,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4195.415513645969</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6661,10 +6663,10 @@
         <v>4383.115220040014</v>
       </c>
       <c r="X31" t="n">
-        <v>4383.115220040014</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y31" t="n">
-        <v>4383.115220040014</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>423.0977207349383</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.074801429505</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>573.4391700005397</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>402.3457975622561</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.288101637262</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W34" t="n">
-        <v>1224.218437146136</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X34" t="n">
-        <v>985.8745750058193</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.138876394584</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1277.772921285978</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6965,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.216283632599</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>3612.981460220206</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>3441.888087781923</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4542.830391856929</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>4263.760727365803</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>4025.416865225486</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>3800.681166614251</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E38" t="n">
         <v>1320.262653899312</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7217,7 +7219,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>475.3870687643226</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>308.136677689866</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>158.5292224953227</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1109.278667993779</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>835.3929229333004</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>640.0181946537314</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2514.534933932999</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C41" t="n">
-        <v>2104.410343246269</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D41" t="n">
-        <v>1699.94641333933</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E41" t="n">
-        <v>1285.606197856226</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F41" t="n">
-        <v>864.5757858099139</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G41" t="n">
-        <v>455.8475017027461</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M41" t="n">
-        <v>2034.355257957088</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N41" t="n">
-        <v>2034.355257957088</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O41" t="n">
-        <v>2677.986114374193</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>2677.986114374193</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2579.524527713341</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>2579.524527713341</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>2514.534933932999</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y41" t="n">
-        <v>2514.534933932999</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>1752.316237900414</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2102.160702584397</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>793.9747653465236</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="C43" t="n">
-        <v>793.9747653465236</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="D43" t="n">
-        <v>793.9747653465236</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="E43" t="n">
-        <v>656.4222597016197</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="F43" t="n">
-        <v>491.791133812211</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="G43" t="n">
-        <v>324.5407427377544</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S43" t="n">
-        <v>1316.321651823697</v>
+        <v>3499.404093244767</v>
       </c>
       <c r="T43" t="n">
-        <v>1076.772912800399</v>
+        <v>3259.855354221469</v>
       </c>
       <c r="U43" t="n">
-        <v>793.9747653465236</v>
+        <v>2977.057206767593</v>
       </c>
       <c r="V43" t="n">
-        <v>793.9747653465236</v>
+        <v>2703.171461707115</v>
       </c>
       <c r="W43" t="n">
-        <v>793.9747653465236</v>
+        <v>2424.10179721599</v>
       </c>
       <c r="X43" t="n">
-        <v>793.9747653465236</v>
+        <v>2185.757935075673</v>
       </c>
       <c r="Y43" t="n">
-        <v>793.9747653465236</v>
+        <v>2156.396964744008</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1333.800530964582</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C44" t="n">
-        <v>923.6759402778517</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D44" t="n">
-        <v>923.6759402778517</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L44" t="n">
-        <v>1025.36411292753</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M44" t="n">
-        <v>1750.381228315802</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.398343704075</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O44" t="n">
-        <v>2475.398343704075</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2545.601781512029</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X44" t="n">
-        <v>2144.958383680981</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y44" t="n">
-        <v>1744.021710629071</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="N45" t="n">
-        <v>1508.621472424083</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.672453451424</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>384.1291826686265</v>
+        <v>303.0768192081347</v>
       </c>
       <c r="C46" t="n">
-        <v>384.1291826686265</v>
+        <v>303.0768192081347</v>
       </c>
       <c r="D46" t="n">
-        <v>384.1291826686265</v>
+        <v>303.0768192081347</v>
       </c>
       <c r="E46" t="n">
-        <v>223.2183675369459</v>
+        <v>303.0768192081347</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>138.4456933187259</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>138.4456933187259</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1162.045631125</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>879.2474836711237</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>847.2087434201783</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>847.2087434201783</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>608.8648812798617</v>
+        <v>527.81251781937</v>
       </c>
       <c r="Y46" t="n">
-        <v>384.1291826686265</v>
+        <v>303.0768192081347</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>743.1449349270125</v>
       </c>
       <c r="N2" t="n">
-        <v>179.2948493292777</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8063,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>491.4496229341743</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>720.2478464674257</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>295.8829806255396</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>752.2386755228589</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>544.425438696835</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>282.1764805785804</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>345.9430299987242</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>635.7022184829458</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,16 +8540,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>789.9048043326325</v>
+        <v>674.8624769205913</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8690,25 +8692,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>484.5465383770935</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8766,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>435.6126791501932</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>712.6791240701561</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>676.9459084607529</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9240,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>797.4175450132245</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9407,7 +9409,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9714,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>801.788435357892</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>841.9067396726143</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,7 +10196,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
@@ -10203,7 +10205,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10370,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
@@ -10440,7 +10442,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>166.3187983121741</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10449,7 +10451,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>711.6624984671718</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10686,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11063,25 +11065,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>146.4674932816325</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>302.9826148164273</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146595</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
@@ -11303,22 +11305,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>186.8272281171751</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>276.9948941791322</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115.8423661092906</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>293.2626318466587</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>66.60687553982083</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>208.6070786176237</v>
       </c>
     </row>
     <row r="5">
@@ -22787,19 +22789,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>207.8975931997042</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>130.8015430845885</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22951,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>143.9314440337777</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -22999,16 +23001,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.3343503957697</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>24.838193236306</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>237.9354137837949</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>105.8737677093141</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>130.3258329224284</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.860265178597956</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23947,16 +23949,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>93.42449318090664</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>111.7614595995713</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>135.7301496940233</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>37.84312462897442</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>65.85279211229306</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>96.14494677818641</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>129.680898419834</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>26.4372813198022</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25132,10 +25134,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>152.9859398624041</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>89.29455036116039</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>237.4059310037594</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>50.54991588006423</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>332.2972660101983</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>23.12472639190895</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>193.420980996774</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>375.2201108762064</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.74734910992152</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -26029,7 +26031,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>84.0289023120834</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26071,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>239.4285347614372</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>568157.5528333326</v>
+        <v>642669.910181715</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>568157.5528333323</v>
+        <v>642669.9101817152</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>568157.5528333323</v>
+        <v>642669.910181715</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568157.5528333323</v>
+        <v>642669.9101817149</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568157.5528333324</v>
+        <v>642669.910181715</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738848.9146446534</v>
+        <v>738848.9146446532</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738848.9146446534</v>
+        <v>738848.9146446536</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738848.9146446534</v>
+        <v>738848.9146446533</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738848.9146446534</v>
+        <v>738848.9146446536</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738848.9146446536</v>
+        <v>738848.9146446532</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568157.5528333327</v>
+        <v>642669.9101817149</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568157.5528333326</v>
+        <v>642669.9101817149</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222737.5171656207</v>
+        <v>251946.420850112</v>
       </c>
       <c r="C2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="D2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="E2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="F2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="G2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="H2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="I2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="J2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="K2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="L2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="M2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350939</v>
       </c>
       <c r="N2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="O2" t="n">
-        <v>222737.5171656206</v>
+        <v>251946.420850112</v>
       </c>
       <c r="P2" t="n">
-        <v>222737.5171656205</v>
+        <v>251946.420850112</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="C4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="D4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155124</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>13426.58272155123</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112687.6174657708</v>
+        <v>-159930.6005762288</v>
       </c>
       <c r="C6" t="n">
-        <v>132736.5348173243</v>
+        <v>148868.1410358149</v>
       </c>
       <c r="D6" t="n">
-        <v>132736.5348173243</v>
+        <v>148868.141035815</v>
       </c>
       <c r="E6" t="n">
-        <v>166364.1348173243</v>
+        <v>182495.7410358149</v>
       </c>
       <c r="F6" t="n">
-        <v>166364.1348173243</v>
+        <v>182495.741035815</v>
       </c>
       <c r="G6" t="n">
-        <v>84582.89912104253</v>
+        <v>136414.6871995238</v>
       </c>
       <c r="H6" t="n">
-        <v>203318.0835531566</v>
+        <v>203318.0835531565</v>
       </c>
       <c r="I6" t="n">
-        <v>203318.0835531566</v>
+        <v>203318.0835531565</v>
       </c>
       <c r="J6" t="n">
-        <v>11705.58038280379</v>
+        <v>-37773.50953458017</v>
       </c>
       <c r="K6" t="n">
         <v>203318.0835531565</v>
       </c>
       <c r="L6" t="n">
-        <v>203318.0835531565</v>
+        <v>203318.0835531566</v>
       </c>
       <c r="M6" t="n">
         <v>203318.0835531566</v>
@@ -26558,10 +26560,10 @@
         <v>203318.0835531566</v>
       </c>
       <c r="O6" t="n">
-        <v>166364.1348173243</v>
+        <v>182495.7410358149</v>
       </c>
       <c r="P6" t="n">
-        <v>166364.1348173242</v>
+        <v>182495.7410358149</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,22 +34707,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>649.854710469967</v>
       </c>
       <c r="N2" t="n">
-        <v>86.3825585726584</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>435.3350991233252</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.0544530736757</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>200.3975825626947</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>658.9484510658134</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>491.232045303085</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>227.9168455757767</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>250.4576319358794</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>542.5124428571627</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>732.340520594215</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>390.8971750962094</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>333.185881862945</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>377.8612001501932</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>619.3888996131107</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>623.7525150670029</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>744.2241516194746</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36127,7 +36129,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>744.2241516194746</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>788.7133462788644</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
@@ -36923,7 +36925,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
@@ -37160,7 +37162,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>108.5673193121741</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>658.4691050734218</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>50.98209521878769</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.9488104172752</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>18.22667726606054</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>93.17786483629099</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>219.2434151791322</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1054474.428843313</v>
+        <v>1051966.0771174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446147</v>
+        <v>5562152.400446145</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710871</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>107.1566587612113</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>149.0329547084132</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>82.85798684944118</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.88126300749924</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>215.5376360322956</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.64644312993429</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>77.72590661310004</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1138,22 +1138,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>69.42212721841199</v>
       </c>
       <c r="I8" t="n">
-        <v>60.65005181979156</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>17.93681655305651</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,10 +1381,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>178.8846941420544</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>261.1872119898716</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>338.1753487462616</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.0638484442163</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>170.7879507721959</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.16954853629574</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>170.7879507721959</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>42.43741174507654</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.21879981048506</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>186.984417485054</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.99018014062471</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>33.74095660611388</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>373.736032213064</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>64.63266955665287</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>22.11028510146616</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>16.55447303929008</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.06736062834895</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>282.8872545301625</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>362.8936521561746</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>64.0824783305145</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4200,7 +4200,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.746750693538</v>
+        <v>1804.414896657373</v>
       </c>
       <c r="C2" t="n">
-        <v>1322.622160006808</v>
+        <v>1394.290305970644</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.38311075306</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="E2" t="n">
-        <v>1214.38311075306</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F2" t="n">
-        <v>793.352698706747</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G2" t="n">
-        <v>384.6244145995792</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H2" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1967.822981513842</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>2721.00399815246</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O2" t="n">
-        <v>3364.634854569565</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P2" t="n">
         <v>3364.634854569565</v>
@@ -4360,22 +4360,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U2" t="n">
-        <v>3328.308302105817</v>
+        <v>3399.976448069652</v>
       </c>
       <c r="V2" t="n">
-        <v>3328.308302105817</v>
+        <v>3399.976448069652</v>
       </c>
       <c r="W2" t="n">
-        <v>2944.548001240985</v>
+        <v>3016.21614720482</v>
       </c>
       <c r="X2" t="n">
-        <v>2543.904603409938</v>
+        <v>2615.572749373773</v>
       </c>
       <c r="Y2" t="n">
-        <v>2142.967930358028</v>
+        <v>2214.636076321863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>2070.288413646449</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>2070.288413646449</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N3" t="n">
-        <v>2070.288413646449</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="O3" t="n">
-        <v>2774.245504192344</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P3" t="n">
-        <v>3335.951396680874</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q3" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4515,25 +4515,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X4" t="n">
-        <v>1364.770951707831</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2443.311846829832</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C5" t="n">
-        <v>2033.187256143102</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D5" t="n">
-        <v>1628.723326236163</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E5" t="n">
-        <v>1214.38311075306</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F5" t="n">
-        <v>793.352698706747</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G5" t="n">
-        <v>384.6244145995792</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="H5" t="n">
         <v>73.71591722729714</v>
@@ -4567,19 +4567,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>73.71591722729714</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>786.3073170395352</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M5" t="n">
-        <v>1438.66628359469</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N5" t="n">
-        <v>2191.847300233308</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O5" t="n">
         <v>2835.478156650413</v>
@@ -4594,25 +4594,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U5" t="n">
-        <v>3071.247810365327</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V5" t="n">
-        <v>2853.533026494321</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W5" t="n">
-        <v>2853.533026494321</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X5" t="n">
-        <v>2853.533026494321</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y5" t="n">
-        <v>2853.533026494321</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>529.5221734925958</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L6" t="n">
-        <v>1190.610345411884</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M6" t="n">
-        <v>1190.610345411884</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="N6" t="n">
-        <v>1190.610345411884</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="O6" t="n">
-        <v>1894.567435957778</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P6" t="n">
         <v>2120.205113077797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>587.0798435449918</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>415.9864711067083</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>256.4918264296184</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>95.58101129793783</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>95.58101129793783</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
         <v>73.71591722729714</v>
@@ -4752,25 +4752,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1603.114813848147</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U7" t="n">
-        <v>1603.114813848147</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V7" t="n">
-        <v>1329.229068787669</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W7" t="n">
-        <v>1050.159404296544</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X7" t="n">
-        <v>811.8155421562271</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y7" t="n">
-        <v>587.0798435449918</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2090.234309952579</v>
+        <v>1475.686258953049</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.109719265849</v>
+        <v>1065.561668266319</v>
       </c>
       <c r="D8" t="n">
-        <v>1275.645789358909</v>
+        <v>1065.561668266319</v>
       </c>
       <c r="E8" t="n">
-        <v>1275.645789358909</v>
+        <v>651.2214527832152</v>
       </c>
       <c r="F8" t="n">
-        <v>854.615377312597</v>
+        <v>230.1910407369028</v>
       </c>
       <c r="G8" t="n">
-        <v>445.8870932054292</v>
+        <v>230.1910407369028</v>
       </c>
       <c r="H8" t="n">
-        <v>134.9785958331472</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
@@ -4816,40 +4816,40 @@
         <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>3108.151897246701</v>
+        <v>2721.00399815246</v>
       </c>
       <c r="O8" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="P8" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q8" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="W8" t="n">
-        <v>3302.035560500025</v>
+        <v>2687.487509500495</v>
       </c>
       <c r="X8" t="n">
-        <v>2901.392162668978</v>
+        <v>2286.844111669448</v>
       </c>
       <c r="Y8" t="n">
-        <v>2500.455489617068</v>
+        <v>1885.907438617538</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>684.8411284776494</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N9" t="n">
-        <v>1558.499220589267</v>
+        <v>947.374009338915</v>
       </c>
       <c r="O9" t="n">
-        <v>1558.499220589267</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q9" t="n">
         <v>2120.205113077797</v>
@@ -4986,25 +4986,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X10" t="n">
-        <v>73.71591722729714</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y10" t="n">
         <v>73.71591722729714</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1483.336263548569</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C11" t="n">
-        <v>1073.211672861839</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D11" t="n">
-        <v>668.7477429548999</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E11" t="n">
-        <v>254.4075274717966</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71591722729714</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G11" t="n">
         <v>73.71591722729714</v>
@@ -5050,19 +5050,19 @@
         <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N11" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P11" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q11" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
         <v>3685.795861364857</v>
@@ -5074,19 +5074,19 @@
         <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>3428.735369624367</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>3078.897814960848</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W11" t="n">
-        <v>2695.137514096016</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X11" t="n">
-        <v>2294.494116264969</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y11" t="n">
-        <v>1893.557443213059</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>403.5699402716127</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>1246.547020966179</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>2120.205113077797</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
         <v>2120.205113077797</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.71591722729714</v>
+        <v>409.4404155549894</v>
       </c>
       <c r="C13" t="n">
-        <v>73.71591722729714</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="D13" t="n">
-        <v>73.71591722729714</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="E13" t="n">
-        <v>73.71591722729714</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="F13" t="n">
         <v>73.71591722729714</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1339.289347191711</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>1339.289347191711</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1480313746799</v>
+        <v>1060.219682700586</v>
       </c>
       <c r="X13" t="n">
-        <v>73.71591722729714</v>
+        <v>821.8758205602691</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.71591722729714</v>
+        <v>597.1401219490338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2132.40334945755</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C14" t="n">
-        <v>1722.27875877082</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.814828863881</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E14" t="n">
-        <v>903.4746133807774</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F14" t="n">
-        <v>482.444201334465</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G14" t="n">
         <v>73.71591722729714</v>
@@ -5278,19 +5278,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1578.652289616329</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>2191.847300233308</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>2191.847300233308</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="O14" t="n">
         <v>2835.478156650413</v>
@@ -5314,16 +5314,16 @@
         <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>3685.795861364857</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W14" t="n">
-        <v>3344.204600004997</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X14" t="n">
-        <v>2943.561202173949</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y14" t="n">
-        <v>2542.624529122039</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M15" t="n">
-        <v>916.6929979218638</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.351090033482</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P15" t="n">
         <v>2120.205113077797</v>
@@ -5460,25 +5460,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
         <v>73.71591722729714</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.298732171156</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1253.93120849013</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2512.458907120301</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1153.452678737507</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1153.452678737507</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>874.3830142463817</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>874.3830142463817</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6074,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6177,22 +6177,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1579.776521841699</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1296.978374387823</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1445.819902064449</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>286.056555253256</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M33" t="n">
-        <v>1129.033635947823</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N33" t="n">
-        <v>2002.69172805944</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1651.101817718438</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
         <v>2110.173374178493</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1263.484130926395</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N36" t="n">
-        <v>4332.330861486824</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3612.981460220206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3441.888087781923</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4542.830391856929</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4263.760727365803</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4025.416865225486</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3800.681166614251</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2102.237727455811</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1697.773797548872</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>475.3870687643226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>308.136677689866</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>158.5292224953227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>640.0181946537314</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>640.0181946537314</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.0181946537314</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7396,10 +7396,10 @@
         <v>925.8082346953897</v>
       </c>
       <c r="E41" t="n">
-        <v>511.4680192122864</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>90.43760716597399</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
         <v>73.71591722729714</v>
@@ -7411,25 +7411,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>662.3476926029365</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>1438.66628359469</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>2191.847300233308</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O41" t="n">
-        <v>2835.478156650413</v>
+        <v>2998.601737025188</v>
       </c>
       <c r="P41" t="n">
-        <v>3364.634854569565</v>
+        <v>3527.75843494434</v>
       </c>
       <c r="Q41" t="n">
         <v>3685.795861364857</v>
@@ -7496,22 +7496,22 @@
         <v>529.5221734925958</v>
       </c>
       <c r="L42" t="n">
-        <v>1190.610345411884</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M42" t="n">
-        <v>1190.610345411884</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N42" t="n">
-        <v>1190.610345411884</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O42" t="n">
-        <v>1190.610345411884</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>1752.316237900414</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
-        <v>2102.160702584397</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
         <v>2120.205113077797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3499.404093244767</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3259.855354221469</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U43" t="n">
-        <v>2977.057206767593</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V43" t="n">
-        <v>2703.171461707115</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W43" t="n">
-        <v>2424.10179721599</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X43" t="n">
-        <v>2185.757935075673</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2090.234309952579</v>
+        <v>1910.252402985408</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.109719265849</v>
+        <v>1500.127812298678</v>
       </c>
       <c r="D44" t="n">
-        <v>1275.645789358909</v>
+        <v>1500.127812298678</v>
       </c>
       <c r="E44" t="n">
-        <v>861.3055738758062</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F44" t="n">
-        <v>440.2751618294938</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H44" t="n">
         <v>73.71591722729714</v>
@@ -7648,25 +7648,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>73.71591722729714</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>786.3073170395352</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>1562.625908031289</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2315.806924669907</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>2959.437781087012</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P44" t="n">
-        <v>3488.594479006164</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
         <v>3685.795861364857</v>
@@ -7675,25 +7675,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T44" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U44" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W44" t="n">
-        <v>3302.035560500025</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X44" t="n">
-        <v>2901.392162668978</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2500.455489617068</v>
+        <v>2320.473582649898</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>734.8040891465854</v>
       </c>
       <c r="M45" t="n">
-        <v>854.5421300433729</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>854.5421300433729</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1558.499220589267</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>303.0768192081347</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>303.0768192081347</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>303.0768192081347</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>303.0768192081347</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>138.4456933187259</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4456933187259</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
         <v>73.71591722729714</v>
@@ -7836,22 +7836,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1363.566074824849</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U46" t="n">
-        <v>1080.767927370974</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V46" t="n">
-        <v>806.8821823104956</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W46" t="n">
-        <v>527.81251781937</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X46" t="n">
-        <v>527.81251781937</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y46" t="n">
-        <v>303.0768192081347</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>632.7318453389136</v>
@@ -7987,16 +7987,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>743.1449349270125</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>578.550660517026</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,16 +8063,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>491.4496229341743</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>352.6623456499191</v>
       </c>
       <c r="P3" t="n">
         <v>621.6393243851574</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>752.2386755228589</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>578.550660517026</v>
       </c>
       <c r="P5" t="n">
         <v>628.1510783507341</v>
@@ -8294,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>723.8803540323523</v>
@@ -8309,10 +8309,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>695.0063011010592</v>
       </c>
       <c r="P6" t="n">
-        <v>282.1764805785804</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8464,19 +8464,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>462.6427125186164</v>
       </c>
       <c r="O8" t="n">
-        <v>635.7022184829458</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>674.8624769205913</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>321.6714250266351</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>167.676911079824</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8935,13 +8935,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>712.6791240701561</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>835.0261771304423</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9011,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9722,7 +9722,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
@@ -9731,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>371.9455010937738</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10433,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>166.3187983121741</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>164.5900307362087</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10667,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>547.3465691139345</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>146.4674932816325</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>249.6675684602808</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11144,10 +11144,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>743.556791225981</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>77.22687637146595</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11311,13 +11311,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>142.166812190434</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>289.2271199129839</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11384,19 +11384,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>178.5117997957786</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>293.2626318466587</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>105.4569321146718</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>193.4209809967732</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.6070786176237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>291.2449393592691</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>130.8015430845885</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,19 +22944,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>143.9314440337777</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22992,16 +22992,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>193.4209809967732</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>238.3772851801472</v>
       </c>
       <c r="I8" t="n">
-        <v>24.838193236306</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130045</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>237.9354137837949</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23314,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>18.78295398946545</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23554,10 +23554,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>41.74734910992146</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.42449318090664</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>135.7301496940233</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>129.680898419834</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>89.29455036116039</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4997066824603</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25329,7 +25329,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>237.4059310037594</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>50.54991588006423</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>388.0865282268061</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>388.086528226806</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25836,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.420980996774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>127.3095587981098</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>41.74734910992152</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>84.0289023120834</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642669.9101817152</v>
+        <v>642669.9101817149</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642669.910181715</v>
+        <v>642669.9101817152</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642669.9101817149</v>
+        <v>642669.910181715</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738848.9146446533</v>
+        <v>738848.9146446536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738848.9146446532</v>
+        <v>738848.9146446534</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738848.9146446536</v>
+        <v>738848.9146446534</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738848.9146446533</v>
+        <v>738848.9146446534</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738848.9146446532</v>
+        <v>738848.9146446536</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642669.9101817149</v>
+        <v>642669.910181715</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642669.9101817149</v>
+        <v>642669.9101817152</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>251946.420850112</v>
       </c>
       <c r="G2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="H2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="K2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="M2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>289648.6675350937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289648.6675350938</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289648.6675350939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289648.6675350938</v>
       </c>
       <c r="O2" t="n">
         <v>251946.420850112</v>
       </c>
       <c r="P2" t="n">
-        <v>251946.420850112</v>
+        <v>251946.4208501119</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>13426.58272155123</v>
       </c>
       <c r="E4" t="n">
-        <v>13426.58272155124</v>
+        <v>13426.58272155123</v>
       </c>
       <c r="F4" t="n">
         <v>13426.58272155123</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159930.6005762288</v>
+        <v>-160299.6924023028</v>
       </c>
       <c r="C6" t="n">
-        <v>148868.1410358149</v>
+        <v>148499.0492097409</v>
       </c>
       <c r="D6" t="n">
-        <v>148868.141035815</v>
+        <v>148499.049209741</v>
       </c>
       <c r="E6" t="n">
-        <v>182495.7410358149</v>
+        <v>182126.6492097409</v>
       </c>
       <c r="F6" t="n">
-        <v>182495.741035815</v>
+        <v>182126.6492097409</v>
       </c>
       <c r="G6" t="n">
-        <v>136414.6871995238</v>
+        <v>136234.1066068747</v>
       </c>
       <c r="H6" t="n">
-        <v>203318.0835531565</v>
+        <v>203137.5029605074</v>
       </c>
       <c r="I6" t="n">
-        <v>203318.0835531565</v>
+        <v>203137.5029605074</v>
       </c>
       <c r="J6" t="n">
-        <v>-37773.50953458017</v>
+        <v>-37954.09012722939</v>
       </c>
       <c r="K6" t="n">
-        <v>203318.0835531565</v>
+        <v>203137.5029605074</v>
       </c>
       <c r="L6" t="n">
-        <v>203318.0835531566</v>
+        <v>203137.5029605074</v>
       </c>
       <c r="M6" t="n">
-        <v>203318.0835531566</v>
+        <v>203137.5029605074</v>
       </c>
       <c r="N6" t="n">
-        <v>203318.0835531566</v>
+        <v>203137.5029605074</v>
       </c>
       <c r="O6" t="n">
-        <v>182495.7410358149</v>
+        <v>182126.6492097409</v>
       </c>
       <c r="P6" t="n">
-        <v>182495.7410358149</v>
+        <v>182126.6492097409</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>543.5954556656965</v>
@@ -34707,16 +34707,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>649.854710469967</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>485.3608848912428</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>435.3350991233252</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="P3" t="n">
         <v>567.3796893823536</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>658.9484510658134</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>485.3608848912428</v>
       </c>
       <c r="P5" t="n">
         <v>534.50171506985</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>667.7658302215033</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>637.2548221010592</v>
       </c>
       <c r="P6" t="n">
-        <v>227.9168455757767</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>369.7304217619971</v>
       </c>
       <c r="O8" t="n">
-        <v>542.5124428571627</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>263.9199460266351</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>74.3866866227786</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>333.185881862945</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35655,13 +35655,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>619.3888996131107</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>742.113886373823</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
@@ -36451,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>108.5673193121741</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>110.3303957334049</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2320453030855</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>50.98209521878769</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>159.6337640611288</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>685.9925074875636</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>18.22667726606054</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38031,13 +38031,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>48.97703656465086</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.1933155138319</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>120.9475160573612</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
